--- a/03.정적페이지크롤링/월드컵.xlsx
+++ b/03.정적페이지크롤링/월드컵.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="월드컵" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="월드컵" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,25 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,36 +424,682 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>선수번호</t>
+          <t>제목</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>선수이름</t>
+          <t>링크</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>내용</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>월드컵 질문</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>손흥민</t>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=428999769&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=1&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2022.09.24.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">손흥민 이번 카타르월드컵이 마지막 월드컵 일까요? 나이고려하면 정말 몸관리 잘하고... 이번 월드컵 이후 나중에 얼마나 기량 유지를 하느냐에 따라 나오고 못나오고가 갈릴... </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>cgv에서 카타르 월드컵 생중계 하는</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>황희찬</t>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431872806&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=2&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2022.11.03.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cgv에서 카타르 월드컵 생중계 하는거 예매하고 싶은데 이미 끝났나요..?... 카카오쇼핑라이브에선 미리 할인혜택을 제공한 것이고 월드컵 개막이 임박하면 다시 생중계... </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>러시아월드컵 프랑스 설레발</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431461346&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=3&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022.10.28.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">러시아월드컵때 프랑스는 우승한다고 설레발을 그렁게... 2018년 러시아 월드컵 당시, 프랑스 경기력이 실제 좋았습니다. 곧 카타르 월드컵도 마찬가지라 봅니다. 지금까지... </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>월드컵 명단 소집 김신욱,백승호</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431157247&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=4&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022.10.24.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">카타르 월드컵 대표팀 명단 소집에 뭔가 김신욱,백승호 선수 트릭으로 뽑힐 거 같아요... 김신욱은 월드컵 명단 발탁이 굉장히 희박할 것 같고, 백승호는 발탁될 가능성이 충분히... </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022 카타르월드컵일정 선수명단</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=432303591&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=5&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2022.11.09.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... 우리나라 월드컵완전히나오기로한 선수명단 2.... 12일에 월드컵 최종명단을 발표합니다 지금 손흥민이... 없다면 월드컵 최종명단에 들 것으로 예상됩니다 https... </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>카타르 월드컵</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=11&amp;dirId=110811&amp;docId=431678887&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=6&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2022.10.31.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이번 카타르 월드컵때 대략 5주정도 카타르에 체류하는데 이 정도 기간동안 쓸 유심은... 카타르 월드컵 이번 카타르 월드컵때 대략 5주정도 카타르에 체류하는데 이 정도... </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>국가대표에게 월드컵이란?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=432233892&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=7&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2022.11.08.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">그냥 단순히 생각해보면 월드컵에서 뛰는거 보다 자기... 단순히 월드컵이 세계인의 꿈의 축제라는 이유인지 아니면 월드컵에서 준수한 성적을 거두면 돈이 지급되는지... </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2022카타르월드컵 모바일</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=428609716&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=8&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2022.09.18.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안녕하세요 이번2022카타르월드컵 관련해 질문드립니다 이번에 지상파3사 sbs . Kbs mbc... 이번 월드컵 네이버나 spotv 등 모바일로 도 월드컵 중계 볼수있을까요? 4년전... </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>서울월드컵경기장</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=5&amp;dirId=51002&amp;docId=420557886&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=9&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2022.05.29.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">서울월드컵 경기장 3등석 N-J 구역 50열 시야 어떤가요 ?? ㅠㅠ 잘 보일까요 ●서울월드컵 경기장 3등석 N-J 구역 50열은 거리감이 있지만 시야각은 좋습니다. 전광판도 자주... </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>카타르월드컵개막전 D-Day 13일 ㅡㅡ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=432226500&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=10&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2022.11.08.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">카타르월드컵개막전 D-Day 13일 ㅡㅡ 시간존나안가네 월드컵경기볼라고... 너무힘들네 다른 월드컵에 비해서 늦긴했죠ㅠ 손흥민선수 제발 잘회복되길 바랄뿐입니다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>월드컵 승부예측</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=1001010201&amp;docId=432165643&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=11&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2022.11.07.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2018년 월드컵도 네이버에서 승부예측했는데 이번에도 하나요? 22-23시즌 프리미어리그 승부예측, 챔피언스리그 승부예측도 하고 있으니 당여니 2022 월드컵... </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>월드컵중계 kbs중계 다른나라</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=432382705&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=12&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2022.11.10.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월드컵중계 집에 kbs2 7번 방송만 나오는데 우리나라경기는 다 방송하겠지만... 아뇨 나라별로 자사 스포츠 채널에서 중계가 가능할거에요 밑에 카타르 월드컵 경기 일정... </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>수원월드컵경기장에서 수원역가는 버스</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=8&amp;dirId=81201&amp;docId=421391464&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=13&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2022.06.10.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">안녕하세요 수원 월드컵경기장에서 수원역으로 가는... 수원월드컵경기장.아름학교 정류장이나 효성초등학교... 수원월드컵경기장.아름학교 정류장 기준으로 13-4번... </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>카타르 월드컵</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431835377&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=14&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2022.11.02.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... 예선에서 탈락하면 그 나라는 월드컵 진출을 못하나요? Q4.... 월드컵 우승국은 몇 번정도 경기를 하나요? Q7. 월드컵은 총 몇 번의 경기를 하나요? Q8. 일본과 만날 경우가... </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>월드컵 질문</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=432111250&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=15&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2022.11.07.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월드컵 창시자분 이름이 쥘 리메인가요? 줄 리메인가요?  둘 다 맞습니다~ 초기 월드컵 개최(1930년) 당시 피파 회장이었던 프랑스의 줄리메가 월드컵 직전 사유재산으로 이... </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>서울 월드컵 경기장 근처 놀곳</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=12&amp;dirId=1201&amp;docId=421941942&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=16&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2022.06.17.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월드컵 경기장으로 축구 보러 갈껀데 근처나 아님 조금 떨어진곳에 놀만한곳 있나요?? 월드컵 경기장 경기장안에... 있음 월드컵경기장 근처 사는 사람들은 대부분 홍대나... </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>제주도 월드컵 경기장 버스</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=13&amp;dirId=130707&amp;docId=416142339&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=17&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2022.04.01.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월드컵 경기장 버스 제일 처음에 오는거 몇번인가요? 7시에 버스 운행해요?... - 제주로터리(동) 출발 기준 양가왓 경유 제주월드컵경기장과 제주월드컵경기장서문에서 하차가... </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2022 카타르 월드컵</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431638676&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=18&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2022.10.31.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">올해 카타르 월드컵이 왜 겨울에서 열리는지 모르는 사람이 왤케 많을까요?  카타르라는 지역이 월드컵 개최지역으로 선정 되었는데요 카타르는 엄청 더운 중동지역의... </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>동계올림픽, 하계올림픽, 월드컵 개최지</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=100601&amp;docId=405937304&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=19&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2021.11.26.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">앞으로 하게 될 올림픽, 월드컵 유치 결정된 곳 다 알려주세요. 2022년 카타르월드컵, 2022년... ------ 월드컵 22회 카타르 2022.11.21. ~ 12.18. ---- 제23회 북중미... </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>월드컵 조추첨은 언제 하나요??</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=411352755&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=20&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2022.02.04.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">월드컵 조추첨은 언제 하나요?? 안녕하세요 MACHAM입니다. 월드컵 문의해주셨네요 답변 4월3일 월드컵 조추첨입니다. 깨끗하고 거짓 없는 지식iN 지식인 모두가 함께 만들어... </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>카타르 월드컵 바뀐 규칙</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=428708801&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=21&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2022.09.20.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>카타르 월드컵 바뀐 경기 규칙 전부 다 설명해주세요  카타르 월드컵 바뀐 경기규칙 없습니다. 즐거운 하루 되세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022 카타르 월드컵 한국 일정 어떻게... </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431975743&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=22&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2022.11.04.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2022 카타르 월드컵 한국 일정 어떻게 되나요? 월드컵 일정 알려주세요  [질문] 2022 카타르 월드컵 한국 일정 어떻게 되나요? 월드컵 일정 알려주세요 [답변] 2022... </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>안정환 선수 월드컵</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=427277405&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=23&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2022.08.30.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">어느 경기 월드컵에서 골 넣었는지 알려주세요 2002 한/일 월드컵 조별예선 2차전 대한민국 1 vs 1 미국 (안정환 헤더 동점 골) 2002 한/일 월드컵 16강전 대한민국 2 vs 1... </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>네이마르 월드컵</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431435618&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=24&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2022.10.28.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>네이마르 월드컵이 카타르가 마지막이나요?  나이적으로 충분히, 2026년북중미 월드컵까진 부상만 없다면, 국가대표로 출전 가능한 나이입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>라모스는 카타르 월드컵에 출전 하나요?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431959825&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=25&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2022.11.04.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>현재 라모스가 카타르 월드컵에 출전 하는지 모르는데 월드컵에 출전 하나요?  대체로 안... 예비명단을 발탁해도 월드컵 진출 명단엔 넣지 않을거란 의견이 꽤 있는 것 같네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>카타르 월드컵 한국 유니폼</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=419626327&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=26&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2022.05.17.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">국대 유니폼 이번 월드컵때 바뀌나요? 월드컵 앞두고 항상 새로운 디자인의 유니폼이 나왔습니다. 이번 카타르월드컵도 새 유니폼이 나올 것입니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>이강인 이번 카타르 월드컵 안 뛰나요</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=100101&amp;docId=429326086&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=27&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2022.09.28.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">이강인 이번 카타르 월드컵 안 뛰나요? 어제가 월드컵전 마지막평가전인데 1분도... 상당히 높아보이긴하네요 월드컵 엔트리는 26명이니 아직가능성이 없는건 아닙니다 </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>영국이 왜 월드컵에 안나오는이유</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=10010101&amp;docId=431797883&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=28&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2022.11.02.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">제목 그대로입니다. 영국이 축구 강국인데 왜 월드컵에 안 나오는 이유는 궁금합니다. 월드컵엔 영국단일팀으로 나갈 수가 없기 때문입니다 4개의 나라로 나뉘어져 있거든요 </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>서울월드컵경기장 1등석A E-F구역 22열</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=5&amp;dirId=51002&amp;docId=421996885&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=29&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2022.06.18.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ㅈㄱㄴ 서울월드컵경기장 1등석A E-F구역 22열 혹시 직관해보셨던 분 계실까요? 선수들 잘 보일까요? ●서울월드컵경기장 1등석A E-F구역 22열은 1등석으로 하프라인을... </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>아시안게임, 월드컵</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://kin.naver.com/qna/detail.naver?d1id=10&amp;dirId=1006&amp;docId=412125770&amp;qb=7JuU65Oc7Lu1&amp;enc=utf8§ion=kin&amp;rank=30&amp;search_sort=0&amp;spq=0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2022.02.13.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">... 나와있고 월드컵도 검색해보니까 11월달에 한다고 나와있는데 원래 하계, 동계, 아시안, 월드컵이 4년마다... 원래 동계 올림픽,하계 아시안 게임,월드컵 축구가 모두 같은... </t>
         </is>
       </c>
     </row>
